--- a/BackTest/2020-01-16 BackTest IPX.xlsx
+++ b/BackTest/2020-01-16 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -9295,7 +9295,7 @@
         <v>41224.78556304798</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>79632.98710090098</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>78339.05130090097</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>80258.80940090098</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>78980.13260090098</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>78980.13260090098</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>78980.13260090098</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>77736.62110090099</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>75318.84270090099</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>77716.908203406</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>79026.544303406</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>79026.544303406</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>77952.463503406</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>77952.463503406</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>77952.463503406</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>56476.34590340601</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>56522.36520340601</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>56522.36520340601</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>55448.284403406</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>55448.284403406</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>18496.850303406</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>19743.19690340601</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>19206.156503406</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>19206.156503406</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>20467.566503406</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>20467.566503406</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>20467.566503406</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>20467.566503406</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>14875.097303406</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>1614.157303406004</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-20378.42739659399</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-20378.42739659399</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-20378.42739659399</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-27566.10218728999</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-27029.06178728999</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-28290.98028728999</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-28290.98028728999</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-27216.89948728999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-27753.93988728999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-42633.27618728999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-41559.19538728999</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-41559.19538728999</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-41559.19538728999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-41559.19538728999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-41559.19538728999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-41559.19538728999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-45090.14438728999</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-43799.17888728999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-43799.17888728999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-43799.17888728999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11935,14 +11935,10 @@
         <v>-53225.61648728999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J350" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
@@ -11972,19 +11968,11 @@
         <v>-53225.61648728999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J351" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12013,19 +12001,11 @@
         <v>-53225.61648728999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J352" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12054,14 +12034,10 @@
         <v>-53225.61648728999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J353" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
@@ -12091,19 +12067,11 @@
         <v>-53225.61648728999</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J354" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12132,19 +12100,11 @@
         <v>-54017.41758728999</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J355" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12173,14 +12133,10 @@
         <v>-164355.18798729</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="J356" t="n">
-        <v>42.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
@@ -12210,19 +12166,11 @@
         <v>-164355.18798729</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="J357" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12254,14 +12202,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12293,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12332,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12371,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12410,14 +12334,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12449,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12488,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12524,19 +12430,15 @@
         <v>-163281.10718729</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>42.7</v>
       </c>
       <c r="J365" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>42.7</v>
+      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12565,17 +12467,15 @@
         <v>-163281.10718729</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -12606,17 +12506,15 @@
         <v>-163281.10718729</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L367" t="n">
@@ -12650,14 +12548,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12686,17 +12578,15 @@
         <v>-163281.10718729</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J369" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>42.7</v>
+      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12725,15 +12615,17 @@
         <v>-163281.10718729</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J370" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L370" t="n">
@@ -12764,15 +12656,17 @@
         <v>-177392.44708729</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J371" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L371" t="n">
@@ -12803,13 +12697,13 @@
         <v>-175604.40398729</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>42.54</v>
       </c>
       <c r="J372" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12844,13 +12738,13 @@
         <v>-145530.85188729</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>42.7</v>
       </c>
       <c r="J373" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12885,13 +12779,13 @@
         <v>-144993.81148729</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>42.8</v>
       </c>
       <c r="J374" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12926,13 +12820,13 @@
         <v>-144993.81148729</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>42.9</v>
       </c>
       <c r="J375" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12967,13 +12861,13 @@
         <v>-144993.81148729</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>42.9</v>
       </c>
       <c r="J376" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13008,13 +12902,11 @@
         <v>-159321.52858729</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13053,7 +12945,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13088,11 +12980,13 @@
         <v>-159321.52858729</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J379" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13127,11 +13021,13 @@
         <v>-159321.52858729</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J380" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13166,11 +13062,13 @@
         <v>-158050.17328729</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J381" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13205,11 +13103,13 @@
         <v>-158050.17328729</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J382" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13244,11 +13144,13 @@
         <v>-158050.17328729</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J383" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13283,11 +13185,13 @@
         <v>-161281.07568729</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J384" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13322,13 +13226,13 @@
         <v>-159997.12328729</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>42.8</v>
       </c>
       <c r="J385" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13363,11 +13267,13 @@
         <v>-159997.12328729</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J386" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13402,13 +13308,13 @@
         <v>-159997.12328729</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>42.9</v>
       </c>
       <c r="J387" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13443,13 +13349,11 @@
         <v>-159997.12328729</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13484,13 +13388,11 @@
         <v>-159997.12328729</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13525,13 +13427,11 @@
         <v>-159997.12328729</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13570,7 +13470,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13605,11 +13505,13 @@
         <v>-159997.12328729</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J392" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13644,11 +13546,13 @@
         <v>-159311.81278729</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J393" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13687,7 +13591,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13726,7 +13630,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13765,7 +13669,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13804,7 +13708,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13843,7 +13747,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13882,7 +13786,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13921,7 +13825,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13956,13 +13860,11 @@
         <v>-120538.448177986</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>43.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14001,7 +13903,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14040,7 +13942,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14079,7 +13981,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14118,7 +14020,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14157,7 +14059,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14196,7 +14098,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14235,7 +14137,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14274,7 +14176,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14313,7 +14215,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14348,13 +14250,11 @@
         <v>-123417.478877986</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>43.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14389,13 +14289,11 @@
         <v>-123417.478877986</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>43.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14430,13 +14328,11 @@
         <v>-125231.853377986</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>43.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14475,7 +14371,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14510,13 +14406,11 @@
         <v>-169256.263877986</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>43.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14555,7 +14449,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14594,7 +14488,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14633,7 +14527,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14672,7 +14566,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14711,7 +14605,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14750,7 +14644,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14789,7 +14683,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14828,7 +14722,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14867,7 +14761,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14906,7 +14800,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14945,7 +14839,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14984,7 +14878,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15023,7 +14917,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15062,7 +14956,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15101,7 +14995,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15140,7 +15034,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15179,7 +15073,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15218,7 +15112,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15257,7 +15151,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15296,7 +15190,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15335,7 +15229,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15374,7 +15268,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15413,7 +15307,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15452,7 +15346,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15491,7 +15385,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15530,7 +15424,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15569,7 +15463,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15608,7 +15502,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15647,7 +15541,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15686,7 +15580,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15725,7 +15619,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15764,7 +15658,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15803,7 +15697,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15838,11 +15732,13 @@
         <v>-188489.791777986</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J449" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15877,11 +15773,13 @@
         <v>-187415.710977986</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>42.55</v>
+      </c>
       <c r="J450" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15916,13 +15814,13 @@
         <v>-187727.477977986</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>42.7</v>
       </c>
       <c r="J451" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15957,13 +15855,13 @@
         <v>-187190.437577986</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>42.55</v>
       </c>
       <c r="J452" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15998,13 +15896,13 @@
         <v>-187190.437577986</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>42.7</v>
       </c>
       <c r="J453" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16039,13 +15937,13 @@
         <v>-187190.437577986</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>42.7</v>
       </c>
       <c r="J454" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16080,13 +15978,13 @@
         <v>-187190.437577986</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>42.7</v>
       </c>
       <c r="J455" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16121,13 +16019,13 @@
         <v>-185695.485577986</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>42.7</v>
       </c>
       <c r="J456" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16162,13 +16060,13 @@
         <v>-186232.525977986</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>43</v>
       </c>
       <c r="J457" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16203,11 +16101,13 @@
         <v>-190129.564477986</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J458" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16246,7 +16146,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16285,7 +16185,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16324,7 +16224,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16359,11 +16259,13 @@
         <v>-190129.564477986</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J462" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16402,7 +16304,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16441,7 +16343,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16480,7 +16382,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16519,7 +16421,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16558,7 +16460,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16597,7 +16499,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16632,11 +16534,13 @@
         <v>-190129.564477986</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J469" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16671,11 +16575,13 @@
         <v>-190129.564477986</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J470" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16710,11 +16616,13 @@
         <v>-189484.444277986</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J471" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16753,7 +16661,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16792,7 +16700,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16831,7 +16739,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16870,7 +16778,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16909,7 +16817,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16948,7 +16856,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16987,7 +16895,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17026,7 +16934,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17065,7 +16973,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17104,7 +17012,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17143,7 +17051,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17182,7 +17090,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17221,7 +17129,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17260,7 +17168,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17299,7 +17207,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17338,7 +17246,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17377,7 +17285,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17416,7 +17324,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17455,7 +17363,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17494,7 +17402,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17533,7 +17441,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17572,7 +17480,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17611,7 +17519,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17650,7 +17558,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17689,7 +17597,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17728,7 +17636,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17767,7 +17675,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17806,7 +17714,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17845,7 +17753,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17884,7 +17792,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17923,7 +17831,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17962,7 +17870,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18001,7 +17909,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18040,7 +17948,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18079,7 +17987,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18118,7 +18026,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18157,7 +18065,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18196,7 +18104,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18235,7 +18143,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18274,7 +18182,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18313,7 +18221,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18352,7 +18260,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -18391,7 +18299,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -18430,7 +18338,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -18469,7 +18377,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18508,7 +18416,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18547,7 +18455,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18586,7 +18494,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18625,7 +18533,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18664,7 +18572,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18703,7 +18611,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18742,7 +18650,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18781,7 +18689,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18820,7 +18728,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18859,7 +18767,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18898,7 +18806,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18937,7 +18845,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18976,7 +18884,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -19015,7 +18923,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -19054,7 +18962,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -19093,7 +19001,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -19132,7 +19040,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19171,7 +19079,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19210,7 +19118,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -19249,7 +19157,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -19288,7 +19196,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -19327,7 +19235,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -19366,7 +19274,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -19405,7 +19313,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -19444,7 +19352,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19483,7 +19391,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19522,7 +19430,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19561,7 +19469,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19600,7 +19508,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19639,7 +19547,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19678,7 +19586,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19717,7 +19625,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19756,7 +19664,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19795,7 +19703,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19834,7 +19742,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19873,7 +19781,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19912,7 +19820,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19951,7 +19859,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19990,7 +19898,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -20029,7 +19937,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -20068,7 +19976,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -20107,7 +20015,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -20146,7 +20054,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -20185,7 +20093,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -20224,7 +20132,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -20263,7 +20171,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -20302,7 +20210,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -20341,7 +20249,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -20380,7 +20288,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -20419,7 +20327,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -20458,7 +20366,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -20497,7 +20405,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -20536,7 +20444,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -20575,7 +20483,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -20614,7 +20522,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -20653,7 +20561,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -20692,7 +20600,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20731,7 +20639,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20770,7 +20678,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20809,7 +20717,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20848,7 +20756,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20887,7 +20795,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20926,7 +20834,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20965,7 +20873,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -21004,7 +20912,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -21043,7 +20951,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -21082,7 +20990,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -21121,7 +21029,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -21160,7 +21068,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -21199,7 +21107,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -21238,7 +21146,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -21277,7 +21185,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -21316,7 +21224,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -21355,7 +21263,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -21394,7 +21302,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -21433,7 +21341,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -21472,7 +21380,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -21511,7 +21419,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -21550,7 +21458,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -21589,7 +21497,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -21628,7 +21536,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -21667,7 +21575,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -21706,7 +21614,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -21745,7 +21653,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -21784,7 +21692,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -21823,7 +21731,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21862,7 +21770,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21901,7 +21809,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21940,7 +21848,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21979,7 +21887,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -22018,7 +21926,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -22057,7 +21965,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -22096,7 +22004,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -22135,7 +22043,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -22174,7 +22082,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -22213,7 +22121,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -22252,7 +22160,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -22291,7 +22199,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -22330,7 +22238,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -22369,7 +22277,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -22408,7 +22316,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -22447,7 +22355,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -22486,7 +22394,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -22525,7 +22433,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -22564,7 +22472,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -22603,7 +22511,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -22642,7 +22550,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -22681,7 +22589,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -22720,7 +22628,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -22759,7 +22667,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -22798,7 +22706,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -22837,7 +22745,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22876,7 +22784,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22915,7 +22823,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22954,7 +22862,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22989,11 +22897,13 @@
         <v>-235413.081277986</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J632" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -23028,11 +22938,13 @@
         <v>-235413.081277986</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J633" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -23071,7 +22983,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -23106,11 +23018,13 @@
         <v>-240169.085177986</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>42.75</v>
+      </c>
       <c r="J635" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -23149,7 +23063,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -23188,7 +23102,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -23227,7 +23141,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -23266,7 +23180,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -23305,7 +23219,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -23340,11 +23254,13 @@
         <v>-241476.706977986</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>42.75</v>
+      </c>
       <c r="J641" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -23379,11 +23295,13 @@
         <v>-241476.706977986</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J642" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -23418,11 +23336,13 @@
         <v>-241476.706977986</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J643" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -23457,11 +23377,13 @@
         <v>-242530.400177986</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J644" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -23496,11 +23418,13 @@
         <v>-241993.359877986</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>42.75</v>
+      </c>
       <c r="J645" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -23539,7 +23463,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -23578,7 +23502,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -23617,7 +23541,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -23656,7 +23580,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -23695,7 +23619,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -23734,7 +23658,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -23773,7 +23697,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -23812,7 +23736,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -23851,7 +23775,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -23890,7 +23814,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -23929,7 +23853,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -23968,7 +23892,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -24007,7 +23931,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -24046,7 +23970,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -24085,7 +24009,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -24120,11 +24044,13 @@
         <v>-365866.364677986</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>43</v>
+      </c>
       <c r="J661" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -24159,11 +24085,13 @@
         <v>-365866.364677986</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>43</v>
+      </c>
       <c r="J662" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -24198,11 +24126,13 @@
         <v>-365866.364677986</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>43</v>
+      </c>
       <c r="J663" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -24237,13 +24167,13 @@
         <v>-365866.364677986</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>43</v>
       </c>
       <c r="J664" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -24278,11 +24208,13 @@
         <v>-365866.364677986</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>43</v>
+      </c>
       <c r="J665" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -24317,11 +24249,13 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>43</v>
+      </c>
       <c r="J666" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -24356,11 +24290,13 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J667" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -24399,7 +24335,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -24438,7 +24374,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -24477,7 +24413,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -24512,11 +24448,13 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J671" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -24555,7 +24493,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -24594,7 +24532,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -24633,7 +24571,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -24672,7 +24610,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -24711,7 +24649,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -24750,7 +24688,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -24785,11 +24723,13 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J678" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -24828,7 +24768,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -24863,11 +24803,13 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J680" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -24902,11 +24844,13 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J681" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -24941,11 +24885,13 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J682" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -24980,11 +24926,13 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J683" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -25019,11 +24967,13 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J684" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -25058,13 +25008,13 @@
         <v>-365940.238677986</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>43.1</v>
       </c>
       <c r="J685" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -25099,13 +25049,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>43.01</v>
       </c>
       <c r="J686" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -25140,13 +25090,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>43.1</v>
       </c>
       <c r="J687" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -25181,13 +25131,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
         <v>43.1</v>
       </c>
       <c r="J688" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -25222,13 +25172,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>43.1</v>
       </c>
       <c r="J689" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -25263,11 +25213,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J690" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -25302,11 +25254,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J691" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -25341,11 +25295,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J692" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -25380,13 +25336,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>43.1</v>
       </c>
       <c r="J693" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -25425,7 +25381,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -25464,7 +25420,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -25503,7 +25459,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -25542,7 +25498,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -25581,7 +25537,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -25616,11 +25572,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J699" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -25655,11 +25613,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J700" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -25698,7 +25658,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -25733,11 +25693,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J702" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -25776,7 +25738,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -25815,7 +25777,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -25854,7 +25816,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -25893,7 +25855,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -25932,7 +25894,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -25967,11 +25929,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J708" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -26006,11 +25970,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J709" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -26045,11 +26011,13 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J710" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -26088,7 +26056,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -26127,7 +26095,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -26166,7 +26134,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -26205,7 +26173,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -26244,7 +26212,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -26283,7 +26251,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -26318,11 +26286,13 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J717" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -26357,13 +26327,13 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>43.1</v>
       </c>
       <c r="J718" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -26398,11 +26368,13 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J719" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -26437,13 +26409,13 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>43.1</v>
       </c>
       <c r="J720" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -26478,13 +26450,13 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
         <v>43.1</v>
       </c>
       <c r="J721" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -26519,11 +26491,13 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J722" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -26558,11 +26532,13 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J723" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -26597,11 +26573,13 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J724" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -26640,7 +26618,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -26679,7 +26657,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -26718,7 +26696,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -26753,11 +26731,13 @@
         <v>-367149.898277986</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>43.01</v>
+      </c>
       <c r="J728" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -26796,7 +26776,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -26831,11 +26811,13 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J730" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -26870,11 +26852,13 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J731" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -26913,7 +26897,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -26948,11 +26932,13 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J733" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -26987,11 +26973,13 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J734" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -27026,11 +27014,13 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J735" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -27069,7 +27059,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -27108,7 +27098,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -27147,7 +27137,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -27182,11 +27172,13 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J739" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -27225,7 +27217,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -27260,11 +27252,13 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J741" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -27299,11 +27293,13 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J742" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -27342,7 +27338,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -27381,7 +27377,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -27420,7 +27416,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -27455,11 +27451,13 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J746" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -27494,11 +27492,13 @@
         <v>-354066.509077986</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J747" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -27537,7 +27537,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -27572,11 +27572,13 @@
         <v>-354363.931077986</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J749" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -27615,7 +27617,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -27654,7 +27656,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -27693,7 +27695,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -27732,7 +27734,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -27771,7 +27773,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -27810,7 +27812,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -27849,7 +27851,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -27888,7 +27890,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -27927,7 +27929,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -27966,7 +27968,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -28005,7 +28007,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -28044,7 +28046,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -28083,7 +28085,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -28122,7 +28124,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -28161,7 +28163,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -28196,11 +28198,13 @@
         <v>-364210.380177986</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J765" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -28239,7 +28243,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -28274,11 +28278,13 @@
         <v>-364422.202777986</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J767" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -28313,11 +28319,13 @@
         <v>-365661.604277986</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J768" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -28352,11 +28360,13 @@
         <v>-364396.754177986</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J769" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -28391,11 +28401,13 @@
         <v>-365693.187577986</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J770" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -28430,11 +28442,13 @@
         <v>-365156.147277986</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J771" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -28473,7 +28487,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -28508,11 +28522,13 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J773" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -28551,7 +28567,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -28590,7 +28606,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -28629,7 +28645,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -28668,7 +28684,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -28707,7 +28723,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -28746,7 +28762,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -28785,7 +28801,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -28820,11 +28836,13 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J781" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -28859,11 +28877,13 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J782" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -28902,7 +28922,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -28941,7 +28961,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -28980,7 +29000,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -29019,7 +29039,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -29058,7 +29078,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -29097,7 +29117,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -29136,7 +29156,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -29175,7 +29195,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -29214,7 +29234,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -29253,7 +29273,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -29292,7 +29312,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -29331,7 +29351,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -29370,7 +29390,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -29409,7 +29429,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -29448,7 +29468,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -29487,7 +29507,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -29526,7 +29546,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -29565,7 +29585,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -29604,7 +29624,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -29643,7 +29663,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -29682,7 +29702,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -29721,7 +29741,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -29760,7 +29780,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -29795,11 +29815,13 @@
         <v>-368145.363177986</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J806" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -29838,7 +29860,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -29873,11 +29895,13 @@
         <v>-369013.200942394</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>43.02</v>
+      </c>
       <c r="J808" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -29916,7 +29940,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -29955,7 +29979,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -29994,7 +30018,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -30033,7 +30057,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -30072,7 +30096,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -30111,7 +30135,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -30150,7 +30174,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -30189,7 +30213,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -30228,7 +30252,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -30267,7 +30291,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -30306,7 +30330,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -30345,7 +30369,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -30384,7 +30408,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -30423,7 +30447,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -30462,7 +30486,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -30501,7 +30525,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -30540,7 +30564,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -30579,7 +30603,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -30618,7 +30642,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -30657,7 +30681,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -30692,11 +30716,13 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J829" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -30735,7 +30761,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -30774,7 +30800,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -30813,7 +30839,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -30852,7 +30878,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -30891,7 +30917,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -30926,11 +30952,13 @@
         <v>-374753.3393968849</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J835" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -30969,7 +30997,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -31008,7 +31036,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -31047,7 +31075,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -31086,7 +31114,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -31125,7 +31153,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -31164,7 +31192,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -31203,7 +31231,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -31242,7 +31270,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -31281,7 +31309,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -31316,11 +31344,13 @@
         <v>-377610.1118968849</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J845" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -31355,11 +31385,13 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J846" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -31394,11 +31426,13 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J847" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -31433,11 +31467,13 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J848" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -31472,11 +31508,13 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J849" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -31511,11 +31549,13 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J850" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -31550,11 +31590,13 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J851" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -31589,11 +31631,13 @@
         <v>-377549.1118968849</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J852" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -31628,11 +31672,13 @@
         <v>-378623.1924968848</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J853" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -31667,11 +31713,13 @@
         <v>-378623.1924968848</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J854" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -31706,11 +31754,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J855" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -31745,11 +31795,13 @@
         <v>-377891.0744968848</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J856" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -31784,11 +31836,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J857" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -31823,11 +31877,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J858" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -31866,7 +31922,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -31905,7 +31961,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -31940,11 +31996,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J861" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -31983,7 +32041,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -32022,7 +32080,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -32057,11 +32115,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J864" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -32096,11 +32156,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J865" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -32135,11 +32197,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J866" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -32174,11 +32238,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J867" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -32213,11 +32279,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J868" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -32252,11 +32320,13 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J869" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -32295,7 +32365,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -32334,7 +32404,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -32373,7 +32443,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -32412,7 +32482,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -32451,7 +32521,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -32490,7 +32560,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -32529,7 +32599,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -32568,7 +32638,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -32607,7 +32677,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -32646,7 +32716,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -32685,7 +32755,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -32724,7 +32794,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -32763,7 +32833,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -32802,7 +32872,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -32841,7 +32911,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -32880,7 +32950,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -32919,7 +32989,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -32958,7 +33028,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -32997,7 +33067,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -33036,7 +33106,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -33075,7 +33145,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -33114,7 +33184,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -33153,7 +33223,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -33192,7 +33262,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -33231,7 +33301,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -33270,7 +33340,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -33309,7 +33379,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -33348,7 +33418,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -33387,7 +33457,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -33426,7 +33496,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -33465,7 +33535,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -33504,7 +33574,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -33543,7 +33613,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -33582,7 +33652,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -33617,11 +33687,13 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J904" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -33656,11 +33728,13 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J905" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -33695,11 +33769,13 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J906" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -33734,11 +33810,13 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J907" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -33773,11 +33851,13 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J908" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -33812,11 +33892,13 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J909" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -33851,11 +33933,13 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J910" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -33890,11 +33974,13 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J911" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -33929,11 +34015,13 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J912" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -33968,11 +34056,13 @@
         <v>-384967.1176594428</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J913" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -34007,11 +34097,13 @@
         <v>-384967.1176594428</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J914" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -34046,11 +34138,13 @@
         <v>-361549.3051797848</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J915" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -34089,7 +34183,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -34128,7 +34222,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -34167,7 +34261,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -34206,7 +34300,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -34241,19 +34335,19 @@
         <v>-314464.7791797848</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>42.61</v>
+        <v>42.7</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L920" t="n">
-        <v>1.039355785026989</v>
+        <v>1</v>
       </c>
       <c r="M920" t="inlineStr"/>
     </row>
@@ -34280,11 +34374,17 @@
         <v>-314442.3676797848</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -34313,11 +34413,17 @@
         <v>-316272.0111797848</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -34346,11 +34452,17 @@
         <v>-316272.0111797848</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -34379,11 +34491,17 @@
         <v>-335900.4125797848</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -34415,8 +34533,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -34448,8 +34572,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -34481,8 +34611,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -34511,11 +34647,17 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -34544,11 +34686,17 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -34577,11 +34725,17 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -34610,11 +34764,17 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -34643,11 +34803,17 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -34676,11 +34842,17 @@
         <v>-341137.2288797848</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -34709,11 +34881,17 @@
         <v>-341137.2288797848</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -34742,11 +34920,17 @@
         <v>-341674.2691797848</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -34778,8 +34962,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -34811,8 +35001,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -34844,8 +35040,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -34877,8 +35079,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -34910,8 +35118,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -34943,8 +35157,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -34973,11 +35193,17 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -35006,11 +35232,17 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -35039,11 +35271,17 @@
         <v>-359534.8897797848</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -35075,8 +35313,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -35108,8 +35352,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -35141,8 +35391,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -35174,8 +35430,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -35207,8 +35469,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -35237,11 +35505,17 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H950" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -35270,11 +35544,17 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -35303,11 +35583,17 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -35339,8 +35625,14 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -35369,11 +35661,17 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -35405,8 +35703,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -35438,8 +35742,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -35471,8 +35781,14 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -35504,8 +35820,14 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -35537,8 +35859,14 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -35570,8 +35898,14 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -35603,8 +35937,14 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -35636,8 +35976,14 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -35669,8 +36015,14 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -35702,8 +36054,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -35735,8 +36093,14 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -35768,8 +36132,14 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -35801,8 +36171,14 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -35834,8 +36210,14 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -35867,8 +36249,14 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -35900,8 +36288,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -35933,8 +36327,14 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -35966,8 +36366,14 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -35999,8 +36405,14 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -36032,8 +36444,14 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -36065,8 +36483,14 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -36098,8 +36522,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -36131,8 +36561,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -36164,8 +36600,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -36197,8 +36639,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -36230,8 +36678,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -36263,8 +36717,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -36296,8 +36756,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -36329,8 +36795,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -36362,8 +36834,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -36395,8 +36873,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -36428,8 +36912,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -36461,8 +36951,14 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -36494,8 +36990,14 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -36527,8 +37029,14 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -36560,8 +37068,14 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -36593,8 +37107,14 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -36626,8 +37146,14 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -36659,8 +37185,14 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -36692,8 +37224,14 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -36725,8 +37263,14 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -36758,8 +37302,14 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -36791,8 +37341,14 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -36824,8 +37380,14 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -36857,8 +37419,14 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -36890,8 +37458,14 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -36923,8 +37497,14 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -36953,13 +37533,19 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
-        <v>1</v>
+        <v>1.041838407494145</v>
       </c>
       <c r="M1002" t="inlineStr"/>
     </row>
@@ -36986,7 +37572,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -37019,7 +37605,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -37052,7 +37638,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -37085,7 +37671,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -37118,7 +37704,7 @@
         <v>-333682.7805797848</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -37151,7 +37737,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -37184,7 +37770,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37217,7 +37803,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37250,7 +37836,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -37283,7 +37869,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -37316,7 +37902,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -37327,6 +37913,6 @@
       <c r="M1013" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest IPX.xlsx
+++ b/BackTest/2020-01-16 BackTest IPX.xlsx
@@ -9361,7 +9361,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>79632.98710090098</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>78339.05130090097</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>80258.80940090098</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>78980.13260090098</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>78980.13260090098</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>78980.13260090098</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>77736.62110090099</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>75318.84270090099</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>77716.908203406</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>79026.544303406</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>79026.544303406</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>77952.463503406</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>77952.463503406</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>56476.34590340601</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>55448.284403406</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>55448.284403406</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>18496.850303406</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>19206.156503406</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-123417.478877986</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-123417.478877986</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -22858,10 +22858,14 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J681" t="n">
+        <v>43.1</v>
+      </c>
       <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
@@ -22894,8 +22898,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +22934,19 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J683" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22957,10 +22975,14 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J684" t="n">
+        <v>43.1</v>
+      </c>
       <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
@@ -22990,11 +23012,19 @@
         <v>-365940.238677986</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J685" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23023,11 +23053,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="J686" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23056,11 +23094,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J687" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23089,11 +23135,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J688" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23122,11 +23176,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J689" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23155,11 +23217,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J690" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23188,11 +23258,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J691" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23221,11 +23299,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J692" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +23340,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J693" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +23381,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J694" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +23422,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J695" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23356,8 +23466,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +23502,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J697" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +23543,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J698" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23584,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J699" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23625,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J700" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23666,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J701" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +23707,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J702" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23748,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J703" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23620,8 +23792,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23653,8 +23831,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23686,8 +23870,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23716,11 +23906,19 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J707" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23757,7 +23955,11 @@
       <c r="J708" t="n">
         <v>43.1</v>
       </c>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23796,7 +23998,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L709" t="n">
@@ -23837,7 +24039,7 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L710" t="n">
@@ -23946,11 +24148,9 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>43.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
         <v>43.1</v>
       </c>
@@ -24065,9 +24265,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>43.01</v>
+      </c>
       <c r="J716" t="n">
         <v>43.1</v>
       </c>
@@ -24104,9 +24306,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J717" t="n">
         <v>43.1</v>
       </c>
@@ -24143,9 +24347,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J718" t="n">
         <v>43.1</v>
       </c>
@@ -24182,9 +24388,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J719" t="n">
         <v>43.1</v>
       </c>
@@ -24221,9 +24429,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J720" t="n">
         <v>43.1</v>
       </c>
@@ -24260,9 +24470,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J721" t="n">
         <v>43.1</v>
       </c>
@@ -24299,9 +24511,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J722" t="n">
         <v>43.1</v>
       </c>
@@ -24338,9 +24552,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J723" t="n">
         <v>43.1</v>
       </c>
@@ -24377,9 +24593,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J724" t="n">
         <v>43.1</v>
       </c>
@@ -24416,9 +24634,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J725" t="n">
         <v>43.1</v>
       </c>
@@ -24455,9 +24675,11 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J726" t="n">
         <v>43.1</v>
       </c>
@@ -24533,9 +24755,11 @@
         <v>-367149.898277986</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>43.01</v>
+      </c>
       <c r="J728" t="n">
         <v>43.1</v>
       </c>
@@ -24613,9 +24837,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J730" t="n">
         <v>43.1</v>
       </c>
@@ -24652,9 +24878,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J731" t="n">
         <v>43.1</v>
       </c>
@@ -24691,9 +24919,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J732" t="n">
         <v>43.1</v>
       </c>
@@ -24730,9 +24960,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J733" t="n">
         <v>43.1</v>
       </c>
@@ -24769,9 +25001,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J734" t="n">
         <v>43.1</v>
       </c>
@@ -24808,9 +25042,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J735" t="n">
         <v>43.1</v>
       </c>
@@ -24847,9 +25083,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J736" t="n">
         <v>43.1</v>
       </c>
@@ -24886,9 +25124,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J737" t="n">
         <v>43.1</v>
       </c>
@@ -24925,9 +25165,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J738" t="n">
         <v>43.1</v>
       </c>
@@ -24964,9 +25206,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J739" t="n">
         <v>43.1</v>
       </c>
@@ -25003,9 +25247,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J740" t="n">
         <v>43.1</v>
       </c>
@@ -25042,9 +25288,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J741" t="n">
         <v>43.1</v>
       </c>
@@ -25081,9 +25329,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J742" t="n">
         <v>43.1</v>
       </c>
@@ -25120,9 +25370,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J743" t="n">
         <v>43.1</v>
       </c>
@@ -25159,9 +25411,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J744" t="n">
         <v>43.1</v>
       </c>
@@ -25198,9 +25452,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J745" t="n">
         <v>43.1</v>
       </c>
@@ -25237,9 +25493,11 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J746" t="n">
         <v>43.1</v>
       </c>
@@ -25276,9 +25534,11 @@
         <v>-354066.509077986</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J747" t="n">
         <v>43.1</v>
       </c>
@@ -25315,9 +25575,11 @@
         <v>-354066.509077986</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J748" t="n">
         <v>43.1</v>
       </c>
@@ -25354,9 +25616,11 @@
         <v>-354363.931077986</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J749" t="n">
         <v>43.1</v>
       </c>
@@ -25393,9 +25657,11 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J750" t="n">
         <v>43.1</v>
       </c>
@@ -25432,9 +25698,11 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J751" t="n">
         <v>43.1</v>
       </c>
@@ -25471,9 +25739,11 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J752" t="n">
         <v>43.1</v>
       </c>
@@ -25510,9 +25780,11 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J753" t="n">
         <v>43.1</v>
       </c>
@@ -25549,9 +25821,11 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J754" t="n">
         <v>43.1</v>
       </c>
@@ -25588,9 +25862,11 @@
         <v>-357656.451977986</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J755" t="n">
         <v>43.1</v>
       </c>
@@ -25627,9 +25903,11 @@
         <v>-355093.806877986</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J756" t="n">
         <v>43.1</v>
       </c>
@@ -25666,9 +25944,11 @@
         <v>-364910.510977986</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J757" t="n">
         <v>43.1</v>
       </c>
@@ -25705,9 +25985,11 @@
         <v>-363674.183477986</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>43.01</v>
+      </c>
       <c r="J758" t="n">
         <v>43.1</v>
       </c>
@@ -25744,9 +26026,11 @@
         <v>-363674.183477986</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J759" t="n">
         <v>43.1</v>
       </c>
@@ -25978,9 +26262,11 @@
         <v>-364210.380177986</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J765" t="n">
         <v>43.1</v>
       </c>
@@ -26017,9 +26303,11 @@
         <v>-366033.323777986</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J766" t="n">
         <v>43.1</v>
       </c>
@@ -26097,9 +26385,11 @@
         <v>-365661.604277986</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J768" t="n">
         <v>43.1</v>
       </c>
@@ -26136,9 +26426,11 @@
         <v>-364396.754177986</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J769" t="n">
         <v>43.1</v>
       </c>
@@ -26175,9 +26467,11 @@
         <v>-365693.187577986</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J770" t="n">
         <v>43.1</v>
       </c>
@@ -26214,9 +26508,11 @@
         <v>-365156.147277986</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J771" t="n">
         <v>43.1</v>
       </c>
@@ -26253,9 +26549,11 @@
         <v>-366401.229477986</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J772" t="n">
         <v>43.1</v>
       </c>
@@ -26292,9 +26590,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J773" t="n">
         <v>43.1</v>
       </c>
@@ -26331,9 +26631,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J774" t="n">
         <v>43.1</v>
       </c>
@@ -26370,9 +26672,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J775" t="n">
         <v>43.1</v>
       </c>
@@ -26409,9 +26713,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J776" t="n">
         <v>43.1</v>
       </c>
@@ -26448,9 +26754,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J777" t="n">
         <v>43.1</v>
       </c>
@@ -26487,9 +26795,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J778" t="n">
         <v>43.1</v>
       </c>
@@ -26526,9 +26836,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J779" t="n">
         <v>43.1</v>
       </c>
@@ -26565,9 +26877,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J780" t="n">
         <v>43.1</v>
       </c>
@@ -26604,9 +26918,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J781" t="n">
         <v>43.1</v>
       </c>
@@ -26643,9 +26959,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J782" t="n">
         <v>43.1</v>
       </c>
@@ -26682,9 +27000,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J783" t="n">
         <v>43.1</v>
       </c>
@@ -26721,9 +27041,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J784" t="n">
         <v>43.1</v>
       </c>
@@ -26760,9 +27082,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J785" t="n">
         <v>43.1</v>
       </c>
@@ -26799,9 +27123,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J786" t="n">
         <v>43.1</v>
       </c>
@@ -26838,9 +27164,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J787" t="n">
         <v>43.1</v>
       </c>
@@ -26877,9 +27205,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J788" t="n">
         <v>43.1</v>
       </c>
@@ -26916,9 +27246,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J789" t="n">
         <v>43.1</v>
       </c>
@@ -26955,9 +27287,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J790" t="n">
         <v>43.1</v>
       </c>
@@ -26994,9 +27328,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J791" t="n">
         <v>43.1</v>
       </c>
@@ -27033,9 +27369,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J792" t="n">
         <v>43.1</v>
       </c>
@@ -27072,9 +27410,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J793" t="n">
         <v>43.1</v>
       </c>
@@ -27111,9 +27451,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J794" t="n">
         <v>43.1</v>
       </c>
@@ -27150,9 +27492,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J795" t="n">
         <v>43.1</v>
       </c>
@@ -27189,9 +27533,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J796" t="n">
         <v>43.1</v>
       </c>
@@ -27228,9 +27574,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J797" t="n">
         <v>43.1</v>
       </c>
@@ -27267,9 +27615,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J798" t="n">
         <v>43.1</v>
       </c>
@@ -27347,9 +27697,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J800" t="n">
         <v>43.1</v>
       </c>
@@ -27386,9 +27738,11 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J801" t="n">
         <v>43.1</v>
       </c>
@@ -27792,9 +28146,11 @@
         <v>-370411.011842394</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J811" t="n">
         <v>43.1</v>
       </c>
@@ -27831,9 +28187,11 @@
         <v>-368937.0995423939</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J812" t="n">
         <v>43.1</v>
       </c>
@@ -27870,9 +28228,11 @@
         <v>-368937.0995423939</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>43.38</v>
+      </c>
       <c r="J813" t="n">
         <v>43.1</v>
       </c>
@@ -27909,9 +28269,11 @@
         <v>-368937.0995423939</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>43.38</v>
+      </c>
       <c r="J814" t="n">
         <v>43.1</v>
       </c>
@@ -27948,9 +28310,11 @@
         <v>-370566.6622423939</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>43.38</v>
+      </c>
       <c r="J815" t="n">
         <v>43.1</v>
       </c>
@@ -27987,9 +28351,11 @@
         <v>-370105.6202423939</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J816" t="n">
         <v>43.1</v>
       </c>
@@ -28065,9 +28431,11 @@
         <v>-373149.1377423939</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J818" t="n">
         <v>43.1</v>
       </c>
@@ -28104,9 +28472,11 @@
         <v>-372931.1842968849</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J819" t="n">
         <v>43.1</v>
       </c>
@@ -28143,9 +28513,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>43.39</v>
+      </c>
       <c r="J820" t="n">
         <v>43.1</v>
       </c>
@@ -28182,9 +28554,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J821" t="n">
         <v>43.1</v>
       </c>
@@ -28221,9 +28595,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J822" t="n">
         <v>43.1</v>
       </c>
@@ -28260,9 +28636,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J823" t="n">
         <v>43.1</v>
       </c>
@@ -28299,9 +28677,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J824" t="n">
         <v>43.1</v>
       </c>
@@ -28338,9 +28718,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J825" t="n">
         <v>43.1</v>
       </c>
@@ -28377,9 +28759,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J826" t="n">
         <v>43.1</v>
       </c>
@@ -28455,9 +28839,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J828" t="n">
         <v>43.1</v>
       </c>
@@ -28494,9 +28880,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J829" t="n">
         <v>43.1</v>
       </c>
@@ -28533,9 +28921,11 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J830" t="n">
         <v>43.1</v>
       </c>
@@ -28572,9 +28962,11 @@
         <v>-372745.9630968849</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J831" t="n">
         <v>43.1</v>
       </c>
@@ -28611,9 +29003,11 @@
         <v>-374027.5156968849</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>43.39</v>
+      </c>
       <c r="J832" t="n">
         <v>43.1</v>
       </c>
@@ -28650,9 +29044,11 @@
         <v>-373467.4285968849</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J833" t="n">
         <v>43.1</v>
       </c>
@@ -28689,9 +29085,11 @@
         <v>-374764.8627968849</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>43.39</v>
+      </c>
       <c r="J834" t="n">
         <v>43.1</v>
       </c>
@@ -28728,9 +29126,11 @@
         <v>-374753.3393968849</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J835" t="n">
         <v>43.1</v>
       </c>
@@ -28767,9 +29167,11 @@
         <v>-375827.4199968849</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>43.39</v>
+      </c>
       <c r="J836" t="n">
         <v>43.1</v>
       </c>
@@ -28845,9 +29247,11 @@
         <v>-375827.4199968849</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J838" t="n">
         <v>43.1</v>
       </c>
@@ -28884,9 +29288,11 @@
         <v>-375827.4199968849</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J839" t="n">
         <v>43.1</v>
       </c>
@@ -28923,9 +29329,11 @@
         <v>-375769.8029968849</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J840" t="n">
         <v>43.1</v>
       </c>
@@ -29040,9 +29448,11 @@
         <v>-376346.9084968849</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J843" t="n">
         <v>43.1</v>
       </c>
@@ -29118,9 +29528,11 @@
         <v>-377610.1118968849</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J845" t="n">
         <v>43.1</v>
       </c>
@@ -29157,9 +29569,11 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>43.2</v>
+      </c>
       <c r="J846" t="n">
         <v>43.1</v>
       </c>
@@ -29196,9 +29610,11 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J847" t="n">
         <v>43.1</v>
       </c>
@@ -30342,11 +30758,9 @@
         <v>-372506.3007797848</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>43.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
         <v>43.1</v>
       </c>
@@ -31748,217 +32162,253 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
         <v>43.1</v>
       </c>
       <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L911" t="n">
+        <v>1</v>
+      </c>
+      <c r="M911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C912" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D912" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E912" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F912" t="n">
+        <v>1074.0807</v>
+      </c>
+      <c r="G912" t="n">
+        <v>-387849.8649594428</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L912" t="n">
+        <v>1</v>
+      </c>
+      <c r="M912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C913" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D913" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E913" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F913" t="n">
+        <v>2882.7473</v>
+      </c>
+      <c r="G913" t="n">
+        <v>-384967.1176594428</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L913" t="n">
+        <v>1</v>
+      </c>
+      <c r="M913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C914" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D914" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E914" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F914" t="n">
+        <v>1836.6286</v>
+      </c>
+      <c r="G914" t="n">
+        <v>-384967.1176594428</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L914" t="n">
+        <v>1</v>
+      </c>
+      <c r="M914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C915" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="D915" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="E915" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="F915" t="n">
+        <v>23417.812479658</v>
+      </c>
+      <c r="G915" t="n">
+        <v>-361549.3051797848</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L915" t="n">
+        <v>1</v>
+      </c>
+      <c r="M915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>43.93</v>
+      </c>
+      <c r="C916" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="D916" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="E916" t="n">
+        <v>43.93</v>
+      </c>
+      <c r="F916" t="n">
+        <v>15519.4245</v>
+      </c>
+      <c r="G916" t="n">
+        <v>-346029.8806797848</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L916" t="n">
+        <v>1</v>
+      </c>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C917" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="D917" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E917" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F917" t="n">
+        <v>19186.6402</v>
+      </c>
+      <c r="G917" t="n">
+        <v>-326843.2404797847</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K917" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L911" t="n">
-        <v>1.006600928074246</v>
-      </c>
-      <c r="M911" t="inlineStr"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="B912" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C912" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D912" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E912" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F912" t="n">
-        <v>1074.0807</v>
-      </c>
-      <c r="G912" t="n">
-        <v>-387849.8649594428</v>
-      </c>
-      <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
-      <c r="L912" t="n">
-        <v>1</v>
-      </c>
-      <c r="M912" t="inlineStr"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-      <c r="B913" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="C913" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="D913" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="E913" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="F913" t="n">
-        <v>2882.7473</v>
-      </c>
-      <c r="G913" t="n">
-        <v>-384967.1176594428</v>
-      </c>
-      <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
-      <c r="L913" t="n">
-        <v>1</v>
-      </c>
-      <c r="M913" t="inlineStr"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="B914" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="C914" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="D914" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="E914" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="F914" t="n">
-        <v>1836.6286</v>
-      </c>
-      <c r="G914" t="n">
-        <v>-384967.1176594428</v>
-      </c>
-      <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
-      <c r="L914" t="n">
-        <v>1</v>
-      </c>
-      <c r="M914" t="inlineStr"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-      <c r="B915" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="C915" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="D915" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="E915" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="F915" t="n">
-        <v>23417.812479658</v>
-      </c>
-      <c r="G915" t="n">
-        <v>-361549.3051797848</v>
-      </c>
-      <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
-      <c r="L915" t="n">
-        <v>1</v>
-      </c>
-      <c r="M915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>43.93</v>
-      </c>
-      <c r="C916" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="D916" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="E916" t="n">
-        <v>43.93</v>
-      </c>
-      <c r="F916" t="n">
-        <v>15519.4245</v>
-      </c>
-      <c r="G916" t="n">
-        <v>-346029.8806797848</v>
-      </c>
-      <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
-      <c r="L916" t="n">
-        <v>1</v>
-      </c>
-      <c r="M916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="C917" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="D917" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="E917" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="F917" t="n">
-        <v>19186.6402</v>
-      </c>
-      <c r="G917" t="n">
-        <v>-326843.2404797847</v>
-      </c>
-      <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
-        <v>1</v>
+        <v>1.018201856148492</v>
       </c>
       <c r="M917" t="inlineStr"/>
     </row>
@@ -31985,7 +32435,7 @@
         <v>-322150.2639797847</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32018,7 +32468,7 @@
         <v>-314464.7791797848</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32051,7 +32501,7 @@
         <v>-314464.7791797848</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32084,7 +32534,7 @@
         <v>-314442.3676797848</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32117,7 +32567,7 @@
         <v>-316272.0111797848</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32150,7 +32600,7 @@
         <v>-316272.0111797848</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32183,7 +32633,7 @@
         <v>-335900.4125797848</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32216,7 +32666,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32249,7 +32699,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32282,7 +32732,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32315,7 +32765,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32348,7 +32798,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32381,7 +32831,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32414,7 +32864,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32447,7 +32897,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32480,7 +32930,7 @@
         <v>-341137.2288797848</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32513,7 +32963,7 @@
         <v>-341137.2288797848</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32546,7 +32996,7 @@
         <v>-341674.2691797848</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32579,7 +33029,7 @@
         <v>-358768.4126797848</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32612,7 +33062,7 @@
         <v>-356233.8286797848</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32645,7 +33095,7 @@
         <v>-361447.9109797848</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32678,7 +33128,7 @@
         <v>-361447.9109797848</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32711,7 +33161,7 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32744,7 +33194,7 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32777,7 +33227,7 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32810,7 +33260,7 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32843,7 +33293,7 @@
         <v>-359534.8897797848</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32876,7 +33326,7 @@
         <v>-358195.3837797848</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -32909,7 +33359,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32942,7 +33392,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32975,7 +33425,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33008,7 +33458,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33041,7 +33491,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33074,7 +33524,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33107,7 +33557,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33140,7 +33590,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33173,7 +33623,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33602,7 +34052,7 @@
         <v>-349286.0098797848</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33635,7 +34085,7 @@
         <v>-348024.4481797848</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33734,7 +34184,7 @@
         <v>-344919.6668797847</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33767,7 +34217,7 @@
         <v>-344919.6668797847</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33800,7 +34250,7 @@
         <v>-344382.6265797847</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33833,7 +34283,7 @@
         <v>-345456.7072797847</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33866,7 +34316,7 @@
         <v>-343677.5173797847</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33899,7 +34349,7 @@
         <v>-346201.6894797847</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33932,7 +34382,7 @@
         <v>-359404.2302797848</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33965,7 +34415,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33998,7 +34448,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34031,7 +34481,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34064,7 +34514,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34097,7 +34547,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34130,7 +34580,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34163,7 +34613,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34196,7 +34646,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34229,7 +34679,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34262,7 +34712,7 @@
         <v>-351391.6821797848</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34295,7 +34745,7 @@
         <v>-352631.2517797848</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34328,7 +34778,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34361,7 +34811,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34394,7 +34844,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34427,7 +34877,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34460,7 +34910,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34493,7 +34943,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34526,7 +34976,7 @@
         <v>-320607.7998797848</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34559,7 +35009,7 @@
         <v>-318290.9687797848</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34592,7 +35042,7 @@
         <v>-318290.9687797848</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34625,7 +35075,7 @@
         <v>-318290.9687797848</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34658,7 +35108,7 @@
         <v>-306041.7933797848</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34691,7 +35141,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34724,7 +35174,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34757,7 +35207,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34790,7 +35240,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34823,7 +35273,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -34856,7 +35306,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34889,7 +35339,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34922,7 +35372,7 @@
         <v>-333682.7805797848</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -34955,7 +35405,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -34988,7 +35438,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35021,7 +35471,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35054,7 +35504,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35087,7 +35537,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35120,7 +35570,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
